--- a/data-raw/datasets/microorganisms.codes.xlsx
+++ b/data-raw/datasets/microorganisms.codes.xlsx
@@ -59733,7 +59733,7 @@
       </c>
       <c r="B4947" t="inlineStr">
         <is>
-          <t>B_VGCCC_SLMN</t>
+          <t>B_STRPT_VIRI</t>
         </is>
       </c>
     </row>
